--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/predh-common.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/predh-common.xlsx
@@ -88,27 +88,22 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
-Finish: normal
-Keywords:
-➤ Flying</t>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Flying
-When this creature enters, look at target opponent's hand.</t>
+          <t>Draw three cards, then put two cards from your hand on top of your library in any order.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 blue</t>
+          <t>➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -123,14 +118,15 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Draw three cards, then put two cards from your hand on top of your library in any order.</t>
+          <t>Counter target spell.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t>➤ 1 blue</t>
+          <t xml:space="preserve">➤ 1 generic
+➤ 2 blue</t>
         </r>
       </text>
     </comment>
@@ -138,21 +134,23 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
-Finish: normal</t>
+Finish: normal
+Keywords:
+➤ Proliferate</t>
         </r>
       </text>
     </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>Counter target spell.</t>
+          <t>Counter target spell, then proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
+          <t xml:space="preserve">➤ 2 generic
 ➤ 2 blue</t>
         </r>
       </text>
@@ -170,7 +168,8 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>Counter target spell, then proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
+          <t xml:space="preserve">Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)
+Draw a card.</t>
         </r>
       </text>
     </comment>
@@ -178,32 +177,33 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
-➤ 2 blue</t>
+➤ 1 blue</t>
         </r>
       </text>
     </comment>
     <comment ref="D8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 1/1
+Border: black
 Finish: normal
 Keywords:
-➤ Proliferate</t>
+➤ Flying</t>
         </r>
       </text>
     </comment>
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)
-Draw a card.</t>
+          <t xml:space="preserve">Flying
+When this creature enters, look at target opponent's hand.</t>
         </r>
       </text>
     </comment>
     <comment ref="I8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 blue</t>
         </r>
       </text>
@@ -349,40 +349,11 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>{1}, {T}: Add {W}{B}.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <t>➤ 2 generic</t>
+          <t>{T}: Add {W}.</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>{2}, {T}, Sacrifice this artifact: Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 1 generic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 2/2
@@ -393,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)
@@ -401,14 +372,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t>➤ 4 generic</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 1/1
@@ -417,10 +388,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <t>When this creature dies, return another target artifact card from your graveyard to your hand.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <t>➤ 2 generic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>When this creature dies, return another target artifact card from your graveyard to your hand.</t>
+          <t>{1}, {T}: Add {W}{B}.</t>
         </r>
       </text>
     </comment>
@@ -442,7 +435,14 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>{T}: Add {W}.</t>
+          <t>{2}, {T}, Sacrifice this artifact: Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <t>➤ 1 generic</t>
         </r>
       </text>
     </comment>
@@ -561,27 +561,6 @@
     <t>Open Blighted Agent</t>
   </si>
   <si>
-    <t>Talas Explorer</t>
-  </si>
-  <si>
-    <t>Creature — Human Pirate Scout</t>
-  </si>
-  <si>
-    <t>p02</t>
-  </si>
-  <si>
-    <t>Portal Second Age</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>Open Talas Explorer</t>
-  </si>
-  <si>
     <t>Brainstorm</t>
   </si>
   <si>
@@ -658,6 +637,27 @@
   </si>
   <si>
     <t>Open Steady Progress</t>
+  </si>
+  <si>
+    <t>Talas Explorer</t>
+  </si>
+  <si>
+    <t>Creature — Human Pirate Scout</t>
+  </si>
+  <si>
+    <t>p02</t>
+  </si>
+  <si>
+    <t>Portal Second Age</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>Open Talas Explorer</t>
   </si>
   <si>
     <t>Predh (Common) - Black</t>
@@ -753,55 +753,31 @@
     <t>Predh (Common) - Artifact (Colorless)</t>
   </si>
   <si>
-    <t>Orzhov Signet</t>
+    <t>Ancient Den</t>
   </si>
   <si>
-    <t>Artifact</t>
+    <t>Land - Artifact</t>
   </si>
   <si>
-    <t>clu</t>
+    <t>Artifact Land</t>
   </si>
   <si>
-    <t>Ravnica: Clue Edition</t>
+    <t>eoc</t>
   </si>
   <si>
-    <t>225</t>
+    <t>Edge of Eternities Commander</t>
   </si>
   <si>
-    <t>{2}</t>
+    <t>148</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>B, W</t>
+    <t>0.94</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>Open Orzhov Signet</t>
-  </si>
-  <si>
-    <t>Wayfarer's Bauble</t>
-  </si>
-  <si>
-    <t>m3c</t>
-  </si>
-  <si>
-    <t>Modern Horizons 3 Commander</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>{1}</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>Open Wayfarer's Bauble</t>
+    <t>Open Ancient Den</t>
   </si>
   <si>
     <t>Corpse Cur</t>
@@ -846,34 +822,58 @@
     <t>277</t>
   </si>
   <si>
+    <t>{2}</t>
+  </si>
+  <si>
     <t>2.23</t>
   </si>
   <si>
     <t>Open Myr Retriever</t>
   </si>
   <si>
-    <t>Ancient Den</t>
+    <t>Orzhov Signet</t>
   </si>
   <si>
-    <t>Land - Artifact</t>
+    <t>Artifact</t>
   </si>
   <si>
-    <t>Artifact Land</t>
+    <t>clu</t>
   </si>
   <si>
-    <t>eoc</t>
+    <t>Ravnica: Clue Edition</t>
   </si>
   <si>
-    <t>Edge of Eternities Commander</t>
+    <t>225</t>
   </si>
   <si>
-    <t>148</t>
+    <t>B, W</t>
   </si>
   <si>
-    <t>0.94</t>
+    <t>0.26</t>
   </si>
   <si>
-    <t>Open Ancient Den</t>
+    <t>Open Orzhov Signet</t>
+  </si>
+  <si>
+    <t>Wayfarer's Bauble</t>
+  </si>
+  <si>
+    <t>m3c</t>
+  </si>
+  <si>
+    <t>Modern Horizons 3 Commander</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>Open Wayfarer's Bauble</t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -957,39 +957,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,28 +992,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4862,7 +4816,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>37</v>
@@ -4877,10 +4831,10 @@
         <v>40</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>33</v>
@@ -4889,53 +4843,53 @@
         <v>33</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4950,25 +4904,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="J6" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -4977,15 +4931,15 @@
         <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -4994,16 +4948,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>59</v>
@@ -5012,7 +4966,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>33</v>
@@ -5021,53 +4975,53 @@
         <v>33</v>
       </c>
       <c r="M7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="15">
-        <v>3</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8398,7 +8352,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
@@ -11762,46 +11716,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>2</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15164,39 +15118,39 @@
         <v>101</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J3" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -15205,25 +15159,25 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J4" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>106</v>
@@ -15232,53 +15186,53 @@
         <v>106</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="13">
-        <v>4</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -15293,7 +15247,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>127</v>
@@ -15308,7 +15262,7 @@
         <v>130</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J6" s="11">
         <v>2</v>
@@ -15317,56 +15271,56 @@
         <v>106</v>
       </c>
       <c r="L6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="L7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="7" t="s">
         <v>140</v>
       </c>
     </row>
